--- a/biology/Botanique/Parkia_timoriana/Parkia_timoriana.xlsx
+++ b/biology/Botanique/Parkia_timoriana/Parkia_timoriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parkia timoriana, appelé communément arbre à haricots, est une espèce de la famille des Fabaceae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parkia timoriana est un arbre qui peut atteindre 30 mètres[1].
-La feuille est bipennée. Elle est divisée en 20 à 30 paires de folioles pennées ou plus pouvant atteindre 12 cm de long. Chacune est divisée en 50 à 60 paires de folioles plus petites et étroites, mesurant chacune un centimètre de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parkia timoriana est un arbre qui peut atteindre 30 mètres.
+La feuille est bipennée. Elle est divisée en 20 à 30 paires de folioles pennées ou plus pouvant atteindre 12 cm de long. Chacune est divisée en 50 à 60 paires de folioles plus petites et étroites, mesurant chacune un centimètre de long.
 L'inflorescence est une tête qui pend au bout d'un pédoncule jusqu'à 45 cm de long. Le capitule a quelques centimètres de largeur et contient plusieurs fleurs à corolles à cinq lobes.
-Le fruit est une longue gousse de légumineuse aplatie, atteignant 36 cm de long, contenant jusqu'à 21 graines noires dures, d'environ 2 cm de long chacune[1].
+Le fruit est une longue gousse de légumineuse aplatie, atteignant 36 cm de long, contenant jusqu'à 21 graines noires dures, d'environ 2 cm de long chacune.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parkia timoriana est originaire de la Thaïlande, de la Malaisie, du Myanmar, de l'Indonésie et de l'Assam en Inde.
-Il vit dans les forêts humides, principalement jusqu’à environ 600 m d’altitude[1].
+Il vit dans les forêts humides, principalement jusqu’à environ 600 m d’altitude.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs de Parkia timoriana sont pollinisées par les Pteropodidae[2], en particulier Eonycteris spelaea[1], qui se nourrissent du nectar. Les chauves-souris sont des pollinisateurs des fleurs plus efficaces que les insectes[3].
-L'arbre est vulnérable à l'insecte Cadra cautella. La chenille pénètre dans la graine pour la nymphose, se nourrissant de l'intérieur de la graine et la remplissant de sangle. Il consomme aussi les capitules[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs de Parkia timoriana sont pollinisées par les Pteropodidae, en particulier Eonycteris spelaea, qui se nourrissent du nectar. Les chauves-souris sont des pollinisateurs des fleurs plus efficaces que les insectes.
+L'arbre est vulnérable à l'insecte Cadra cautella. La chenille pénètre dans la graine pour la nymphose, se nourrissant de l'intérieur de la graine et la remplissant de sangle. Il consomme aussi les capitules.
 </t>
         </is>
       </c>
@@ -609,11 +627,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois est utilisé pour le bois de chauffage et le bois d'œuvre[1]. En Afrique, le bois n'est généralement pas utilisé, mais l'arbre est souvent planté à des fins ornementales. C'est un arbre de jardin populaire en Inde[4], en particulier dans l'Assam et le Manipur. Il tolère le soleil et l'ombre.
-Le fruit est un aliment commun en Thaïlande et en Indonésie. Dans la cuisine thaïlandaise, ce légume est assaisonné au curry[5]. À maturité, les graines ont un tégument dur et noir. Les graines peuvent être séchées et stockées. Les graines dégagent une forte odeur de soufre, due à la présence de thioproline. La graine nécessite donc une préparation.
-Elle est aussi utilisée dans la médecine traditionnelle[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est utilisé pour le bois de chauffage et le bois d'œuvre. En Afrique, le bois n'est généralement pas utilisé, mais l'arbre est souvent planté à des fins ornementales. C'est un arbre de jardin populaire en Inde, en particulier dans l'Assam et le Manipur. Il tolère le soleil et l'ombre.
+Le fruit est un aliment commun en Thaïlande et en Indonésie. Dans la cuisine thaïlandaise, ce légume est assaisonné au curry. À maturité, les graines ont un tégument dur et noir. Les graines peuvent être séchées et stockées. Les graines dégagent une forte odeur de soufre, due à la présence de thioproline. La graine nécessite donc une préparation.
+Elle est aussi utilisée dans la médecine traditionnelle.
 </t>
         </is>
       </c>
